--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,14 @@
   </si>
   <si>
     <t>界面代码在RecvOffline执行时崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请web会话后，该访客并没有移动到坐席的邀请中节点，而是不见了(移过去之后又被删除了)。偶发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,32 +446,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -767,7 +778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -805,8 +818,8 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="8">
+      <c r="E2" s="10"/>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -819,8 +832,8 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="8">
+      <c r="E3" s="10"/>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
     </row>
@@ -835,8 +848,8 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8">
+      <c r="E4" s="10"/>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
     </row>
@@ -849,8 +862,8 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="8">
+      <c r="E5" s="10"/>
+      <c r="F5" s="7">
         <v>1</v>
       </c>
     </row>
@@ -863,8 +876,8 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="8">
+      <c r="E6" s="10"/>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
     </row>
@@ -877,8 +890,8 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="8">
+      <c r="E7" s="10"/>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
     </row>
@@ -893,16 +906,16 @@
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1">
       <c r="A9" s="1">
@@ -913,14 +926,14 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1">
       <c r="A10" s="1">
@@ -931,14 +944,14 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="1">
@@ -949,14 +962,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" customHeight="1">
       <c r="A12" s="1">
@@ -967,14 +980,14 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1">
       <c r="A13" s="1">
@@ -985,14 +998,14 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
@@ -1000,7 +1013,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1">
       <c r="A15" s="1">
@@ -1012,7 +1025,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1028,7 +1041,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1044,7 +1057,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
@@ -1058,13 +1071,13 @@
         <v>33</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="9"/>
+      <c r="H18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
@@ -1078,13 +1091,13 @@
         <v>32</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
@@ -1098,13 +1111,13 @@
         <v>32</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
@@ -1116,13 +1129,13 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
@@ -1134,13 +1147,13 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
@@ -1152,13 +1165,13 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
@@ -1170,7 +1183,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1184,7 +1197,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1200,7 +1213,9 @@
         <v>33</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
@@ -1212,15 +1227,15 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="14" t="s">
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
@@ -1230,13 +1245,13 @@
         <v>30</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="27">
       <c r="A29" s="1">
@@ -1246,13 +1261,13 @@
         <v>31</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
@@ -1265,13 +1280,13 @@
         <v>36</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
@@ -1284,13 +1299,13 @@
         <v>38</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="27">
       <c r="A32" s="1">
@@ -1303,11 +1318,11 @@
         <v>39</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="9"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="F32" s="8"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" ht="40.5">
       <c r="A33" s="1">
@@ -1320,7 +1335,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1335,7 +1350,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1350,7 +1365,7 @@
         <v>42</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1365,7 +1380,7 @@
         <v>42</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1382,12 +1397,12 @@
       <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
@@ -1402,34 +1417,46 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" ht="27">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1485,10 +1512,10 @@
         <v>49</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1496,79 +1523,79 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="15"/>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="15"/>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="15"/>
       <c r="C8" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="54">
       <c r="A9" s="4">
@@ -1580,10 +1607,10 @@
       <c r="D9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1598,7 +1625,7 @@
       <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -1616,7 +1643,7 @@
       <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1634,7 +1661,7 @@
       <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1649,7 +1676,7 @@
       <c r="E13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1667,7 +1694,7 @@
       <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>0</v>
       </c>
     </row>
